--- a/工作空间/1024-需求用户，用例文档/Images/甘特图.xlsx
+++ b/工作空间/1024-需求用户，用例文档/Images/甘特图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viccrubs\Documents\Projects\SchoolNote\工作空间\1024-需求用户，用例文档\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E809D6-8BA7-47C1-A0A9-74A93CFE7B36}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC0BCE4-C2C2-4E5E-905D-56015CC32A56}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7770" xr2:uid="{DE9CB51F-A51E-4800-A5C4-83DB497F7A73}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>https://www.smartsheet.com/blog/gantt-chart-excel</t>
+  </si>
+  <si>
+    <t>Prttp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3Revl, Doc3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -190,7 +202,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1322953916408881"/>
+          <c:y val="8.6513042604364071E-2"/>
+          <c:w val="0.79098907417179021"/>
+          <c:h val="0.84355502596922161"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -211,9 +233,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>MPre1</c:v>
                 </c:pt>
@@ -252,16 +274,25 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Check</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Prttp</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>M3Revl, Doc3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43368</c:v>
                 </c:pt>
@@ -300,6 +331,15 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43393</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43394</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43394</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -328,9 +368,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>MPre1</c:v>
                 </c:pt>
@@ -369,16 +409,25 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Check</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Prttp</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>M3Revl, Doc3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$15</c:f>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -417,6 +466,15 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,16 +1208,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202589</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>49090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>614362</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>58616</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1486,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C555800-7FFB-4201-868F-E47349D1AD4D}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1535,7 +1593,7 @@
         <v>43370</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D14" si="0">C3-B3+1</f>
+        <f t="shared" ref="D3:D17" si="0">C3-B3+1</f>
         <v>1</v>
       </c>
     </row>
@@ -1702,6 +1760,50 @@
       <c r="D14">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43394</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43394</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43394</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43394</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43395</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43396</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
